--- a/biology/Botanique/Pois_patate/Pois_patate.xlsx
+++ b/biology/Botanique/Pois_patate/Pois_patate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pois patate est un nom vernaculaire ambigu  en français, pouvant désigner diverses espèces de Fabacées dont les tubercules sont comestibles.
 </t>
@@ -511,16 +523,18 @@
           <t>Espèces concernées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les « pois patates » ou jicama sont des plantes de la famille des Fabaceae. On consomme leur tubercule.
-Il peut s'agir d'espèces du genre Pachyrhizus, mais on cultive trois plantes originaires d'Amérique latine[1] :
-le plus souvent l'espèce Pachyrhizus erosus[2],[3] ;
-l'espèce Pachyrhizus tuberosus[3],
-On trouve aussi l'espèce Pachyrhizus ahipa qui est également cultivée[1].
+Il peut s'agir d'espèces du genre Pachyrhizus, mais on cultive trois plantes originaires d'Amérique latine :
+le plus souvent l'espèce Pachyrhizus erosus, ;
+l'espèce Pachyrhizus tuberosus,
+On trouve aussi l'espèce Pachyrhizus ahipa qui est également cultivée.
 Le jicama est très populaire en Asie du Sud-Est et en Chine, ainsi que chez les personnes ayant adopté l'alimentation vivante ou raw food (alimentation crue et germée, États-Unis et Canada). Il provient du Mexique. De nombreuses recettes sont fournies dans les ouvrages d'alimentation vivante.
-« Son goût se situe entre la pomme, la poire et le melon blanc. Il est excellent cru[4]. » « Il est riche en niacine, en potassium, en fer, en sodium et en magnésium[4]. »
-Les graines contiennent de la roténone[5] et sont donc toxiques.
+« Son goût se situe entre la pomme, la poire et le melon blanc. Il est excellent cru. » « Il est riche en niacine, en potassium, en fer, en sodium et en magnésium. »
+Les graines contiennent de la roténone et sont donc toxiques.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Confusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pueraria montana (Lour.) Merr, dont les tubercules sont également comestibles, est souvent confondu avec les « pois-patate », mais l'examen du feuillage permet de les distinguer facilement.
 </t>
